--- a/Raining_Adrianopolis/Planning.xlsx
+++ b/Raining_Adrianopolis/Planning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jgabr\Desktop\UMinho\Prog\Projects\Data\ds\datascience\Raining_Adrianopolis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D324FB7E-C547-46DA-88BC-74B10BDDBECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67E5E892-7B73-46DA-90E1-A5EB3176AF3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="75">
   <si>
     <t>Item</t>
   </si>
@@ -105,9 +105,6 @@
     <t>Graphical plot RT x Precipitation</t>
   </si>
   <si>
-    <t>IDF curve</t>
-  </si>
-  <si>
     <t>1.2</t>
   </si>
   <si>
@@ -214,6 +211,45 @@
   </si>
   <si>
     <t>Modeling</t>
+  </si>
+  <si>
+    <t>1.4</t>
+  </si>
+  <si>
+    <t>Structure readme file</t>
+  </si>
+  <si>
+    <t>1.4.1</t>
+  </si>
+  <si>
+    <t>Brief importance of hydrology</t>
+  </si>
+  <si>
+    <t>1.4.2</t>
+  </si>
+  <si>
+    <t>Brief of statistics</t>
+  </si>
+  <si>
+    <t>.1.4.3</t>
+  </si>
+  <si>
+    <t>Brief of models used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.4.4 </t>
+  </si>
+  <si>
+    <t>Brief of data sources and databases</t>
+  </si>
+  <si>
+    <t>1.4.5</t>
+  </si>
+  <si>
+    <t>Brief of study on general</t>
+  </si>
+  <si>
+    <t>IDF curve (Pluviometric Height)</t>
   </si>
 </sst>
 </file>
@@ -255,7 +291,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -267,10 +303,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -551,10 +583,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -617,22 +649,22 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="6">
+      <c r="C4">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>30</v>
       </c>
       <c r="C5" s="4">
         <v>200</v>
@@ -643,257 +675,305 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>2</v>
+      <c r="A6" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7">
-        <v>0.5</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8">
-        <v>0.5</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>0.5</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>3</v>
+      <c r="A10" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>33</v>
+      <c r="A12" s="1">
+        <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <v>0.5</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>0.5</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>0.5</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>5</v>
+      <c r="A20" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>45</v>
+      <c r="A22" s="1">
+        <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23">
-        <v>2</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24">
-        <v>2</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
-      </c>
-      <c r="C25">
-        <v>2</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>52</v>
+      <c r="A26" s="1">
+        <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>48</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="B27" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B29" t="s">
-        <v>56</v>
+        <v>24</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B30" t="s">
-        <v>54</v>
+        <v>25</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B31" t="s">
-        <v>58</v>
+        <v>46</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B35" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B36" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B37" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B38" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>6</v>
+      </c>
+      <c r="B39" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>6</v>
-      </c>
-      <c r="B33" t="s">
-        <v>62</v>
       </c>
     </row>
   </sheetData>
